--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Xemthongtintaikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Xemthongtintaikhoan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523462A7-F6A8-4AF5-AC3A-572CEAD9589A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3706257-9ADF-4DC0-B888-39DDE6D69C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>Author</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>'hiện thị tên nhân sự  theo thứ tự 1-A-Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User đăng nhập vào App bất Động sản bằng tài khoản cá nhân </t>
   </si>
   <si>
     <t xml:space="preserve">Hiển thỉ giao diện trang chủ </t>
@@ -391,6 +388,12 @@
   </si>
   <si>
     <t>Test Cases for ''Xem thông tin tài khoản   "</t>
+  </si>
+  <si>
+    <t>Adminđăng nhập vào WebAdmin bất Động sản bằng tài khoản admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1147,6 +1150,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1167,30 +1194,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1621,31 +1624,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1718,21 +1721,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1741,54 +1744,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1815,8 +1818,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1850,14 +1853,14 @@
       </c>
       <c r="B2" s="71"/>
       <c r="C2" s="72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="73"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="74"/>
       <c r="H2" s="75"/>
@@ -1939,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
@@ -1961,13 +1964,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>35</v>
@@ -1983,13 +1986,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>35</v>
@@ -2005,13 +2008,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>35</v>
@@ -2071,9 +2074,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2095,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -2154,26 +2157,26 @@
         <v>21</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="46">
         <v>1</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="40" customFormat="1" ht="185.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2186,11 +2189,11 @@
         <v>2</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2198,26 +2201,26 @@
         <v>21</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="88" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="46">
         <v>1</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="40" customFormat="1" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2230,11 +2233,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="42"/>
+        <v>73</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>86</v>
+      </c>
       <c r="I8" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2242,26 +2247,26 @@
         <v>21</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="E9" s="88" t="s">
         <v>79</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>80</v>
       </c>
       <c r="F9" s="46">
         <v>1</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="39"/>
       <c r="I9" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="40" customFormat="1" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2274,11 +2279,11 @@
         <v>2</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2286,26 +2291,26 @@
         <v>21</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="88" t="s">
-        <v>83</v>
-      </c>
       <c r="E11" s="88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="46">
         <v>1</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="40" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2318,20 +2323,20 @@
         <v>2</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A7:A8"/>
@@ -2344,11 +2349,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
